--- a/public/scv_exception_uploads/scv_exceptions.xlsx
+++ b/public/scv_exception_uploads/scv_exceptions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcoymat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcoymat\SkyDrive @ GT Nexus\GT Nexus\SCV\SCV Rebranding\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="56">
   <si>
     <t>priority</t>
   </si>
@@ -62,58 +62,136 @@
     <t>cause_object_date</t>
   </si>
   <si>
+    <t>affected_object_reference_number</t>
+  </si>
+  <si>
+    <t>cause_object_reference_number</t>
+  </si>
+  <si>
+    <t>exception_type</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
     <t>open</t>
   </si>
   <si>
-    <t>affected_object_reference_number</t>
-  </si>
-  <si>
-    <t>cause_object_reference_number</t>
-  </si>
-  <si>
     <t>OrderLine</t>
   </si>
   <si>
-    <t>OL0005</t>
-  </si>
-  <si>
-    <t>SL000006</t>
+    <t>OL0001</t>
+  </si>
+  <si>
+    <t>SL002</t>
+  </si>
+  <si>
+    <t>SL000016</t>
+  </si>
+  <si>
+    <t>OL0015</t>
+  </si>
+  <si>
+    <t>SL000017</t>
+  </si>
+  <si>
+    <t>OL0016</t>
+  </si>
+  <si>
+    <t>SL000018</t>
+  </si>
+  <si>
+    <t>OL0017</t>
+  </si>
+  <si>
+    <t>SL000019</t>
+  </si>
+  <si>
+    <t>OL0018</t>
+  </si>
+  <si>
+    <t>SL000020</t>
+  </si>
+  <si>
+    <t>OL0019</t>
+  </si>
+  <si>
+    <t>SL000021</t>
+  </si>
+  <si>
+    <t>OL0020</t>
+  </si>
+  <si>
+    <t>ShipmentLine</t>
+  </si>
+  <si>
+    <t>SKUA001/LOC1/2014-10-05</t>
+  </si>
+  <si>
+    <t>SKUA001/LOC1/2014-10-06</t>
+  </si>
+  <si>
+    <t>SKUA001/LOC1/2014-10-07</t>
+  </si>
+  <si>
+    <t>SKUA001/LOC1/2014-10-08</t>
+  </si>
+  <si>
+    <t>SKUA001/LOC1/2014-10-09</t>
+  </si>
+  <si>
+    <t>1100ROWT SKID ENGINE INT COMB NOI/LOC1/2014-09-10</t>
+  </si>
+  <si>
+    <t>1100ROWT SKID ENGINE INT COMB NOI/LOC1/2014-09-11</t>
+  </si>
+  <si>
+    <t>InventoryProjection</t>
+  </si>
+  <si>
+    <t>SL000007</t>
   </si>
   <si>
     <t>OL0006</t>
   </si>
   <si>
-    <t>SL000007</t>
-  </si>
-  <si>
     <t>OL0007</t>
   </si>
   <si>
+    <t>OL0008</t>
+  </si>
+  <si>
+    <t>OL0009</t>
+  </si>
+  <si>
     <t>SL000008</t>
   </si>
   <si>
-    <t>OL0008</t>
-  </si>
-  <si>
     <t>SL000009</t>
   </si>
   <si>
-    <t>OL0009</t>
-  </si>
-  <si>
     <t>SL000010</t>
   </si>
   <si>
-    <t>ShipmentLine</t>
+    <t>MS038</t>
+  </si>
+  <si>
+    <t>MS039</t>
+  </si>
+  <si>
+    <t>MS040</t>
+  </si>
+  <si>
+    <t>Milestone</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
-    <t>exception_type</t>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>projected_for</t>
   </si>
 </sst>
 </file>
@@ -149,8 +227,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +522,7 @@
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
@@ -458,7 +537,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -470,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -488,7 +567,7 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -505,183 +584,1010 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>123</v>
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="1">
+        <v>41912</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="M2">
-        <v>123</v>
+        <v>118</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="1">
+        <v>41912</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G3">
-        <v>123</v>
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="1">
+        <v>41912</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="M3">
-        <v>123</v>
+        <v>102</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="1">
+        <v>41912</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G4">
-        <v>123</v>
+        <v>118</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1">
+        <v>41912</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
         <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>123</v>
+        <v>105</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="1">
+        <v>41912</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G5">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="1">
+        <v>41912</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
         <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="1">
+        <v>41912</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G6">
-        <v>123</v>
+        <v>118</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="1">
+        <v>41912</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
       </c>
       <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6">
+        <v>109</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="1">
+        <v>41912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1">
+        <v>41912</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
         <v>28</v>
       </c>
-      <c r="M6">
-        <v>123</v>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7">
+        <v>102</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="1">
+        <v>41912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8">
+        <v>114</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1">
+        <v>41912</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8">
+        <v>120</v>
+      </c>
+      <c r="N8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="1">
+        <v>41912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="1">
+        <v>41917</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9">
+        <v>107</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="1">
+        <v>41917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10">
+        <v>104</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="1">
+        <v>41918</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10">
+        <v>110</v>
+      </c>
+      <c r="N10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="1">
+        <v>41918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11">
+        <v>108</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="1">
+        <v>41919</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11">
+        <v>116</v>
+      </c>
+      <c r="N11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="1">
+        <v>41919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12">
+        <v>112</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="1">
+        <v>41920</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12">
+        <v>102</v>
+      </c>
+      <c r="N12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="1">
+        <v>41920</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13">
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="1">
+        <v>41920</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13">
+        <v>105</v>
+      </c>
+      <c r="N13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="1">
+        <v>41920</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14">
+        <v>120</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="1">
+        <v>41892</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14">
+        <v>103</v>
+      </c>
+      <c r="N14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="1">
+        <v>41892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15">
+        <v>118</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="1">
+        <v>41893</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15">
+        <v>111</v>
+      </c>
+      <c r="N15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="1">
+        <v>41893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="1">
+        <v>41912</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16">
+        <v>118</v>
+      </c>
+      <c r="N16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="1">
+        <v>41912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17">
+        <v>112</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="1">
+        <v>41912</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17">
+        <v>108</v>
+      </c>
+      <c r="N17" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="1">
+        <v>41912</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18">
+        <v>111</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="1">
+        <v>41912</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18">
+        <v>116</v>
+      </c>
+      <c r="N18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="1">
+        <v>41912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="1">
+        <v>41912</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19">
+        <v>113</v>
+      </c>
+      <c r="N19" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="1">
+        <v>41912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20">
+        <v>115</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="1">
+        <v>41912</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20">
+        <v>119</v>
+      </c>
+      <c r="N20" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="1">
+        <v>41912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21">
+        <v>111</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="1">
+        <v>41912</v>
+      </c>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21">
+        <v>116</v>
+      </c>
+      <c r="N21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="1">
+        <v>41912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22">
+        <v>116</v>
+      </c>
+      <c r="H22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="1">
+        <v>41912</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22">
+        <v>114</v>
+      </c>
+      <c r="N22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="1">
+        <v>41912</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 I1:I1048576 J1:J1048576">
-      <formula1>"OrderLine,ShipmentLine,Milestone"</formula1>
+  <dataValidations count="6">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 O1:O1048576">
+      <formula1>36526</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>"Quantity,Date"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"open,closed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 J1:J1048576">
+      <formula1>"OrderLine,ShipmentLine,Milestone,WorkOrder,InventoryProjection"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 M1:M1048576">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
